--- a/biology/Zoologie/Jaguajir_pintoi/Jaguajir_pintoi.xlsx
+++ b/biology/Zoologie/Jaguajir_pintoi/Jaguajir_pintoi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jaguajir pintoi est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Brésil au Roraima, au Pará et en Amazonas, au Guyana et en Guyane[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Brésil au Roraima, au Pará et en Amazonas, au Guyana et en Guyane.
 Sa présence au Venezuela dans l'État de Bolívar est incertaine.
 </t>
         </is>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 77 à 88 mm et les femelles de 84 à 91 mm[2].
-Le mâle holotype de Jaguajir pintoi kourouensis mesure 89,7 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 77 à 88 mm et les femelles de 84 à 91 mm.
+Le mâle holotype de Jaguajir pintoi kourouensis mesure 89,7 mm.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (29/12/2020)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (29/12/2020) :
 Jaguajir pintoi pintoi (Mello-Leitão, 1932)
 Jaguajir pintoi kourouensis (Lourenço, 2008) de Guyane</t>
         </is>
@@ -607,9 +625,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Rhopalurus pintoi par Mello-Leitão en 1932. Elle est placée dans le genre Jaguajir par Esposito, Yamaguti, Souza, Pinto-da-Rocha et Prendini en 2017[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Rhopalurus pintoi par Mello-Leitão en 1932. Elle est placée dans le genre Jaguajir par Esposito, Yamaguti, Souza, Pinto-da-Rocha et Prendini en 2017.
 </t>
         </is>
       </c>
@@ -638,9 +658,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Cezar Pinto[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Cezar Pinto.
 </t>
         </is>
       </c>
@@ -669,7 +691,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Mello-Leitão, 1932 : « Notas sobre Escorpiões Sul-Americanos. » Archivos do Museu Nacional, Rio de Janeiro, vol. 34, p. 9–46.
 Lourenço, 2008 : « The geographic pattern of distribution of the genus Rhopalurus Thorell, 1876 in the Guayana-Amazon region (Scorpiones: Buthidae). » Euscorpius, no 73, p. 1-14 (texte intégral).</t>
